--- a/appweb_trpr02/SpaceWar-website/doc/enonceTP2/appweb_trpr02_grille.xlsx
+++ b/appweb_trpr02/SpaceWar-website/doc/enonceTP2/appweb_trpr02_grille.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\cours\appweb_2024\02 Évaluations\trpr02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huber\OneDrive\Desktop\Cegep\AppWeb\appweb-BeeSwarm-Tp2\appweb_trpr02\SpaceWar-website\doc\enonceTP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597556BD-9C64-4732-8020-2D4BA0286F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECAD609-F0A3-4CAB-9C35-9BD66490BDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="1575" windowWidth="38700" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grille_evaluation" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
   <si>
     <t>Éléments observables</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Faire 3 revues de code pour chaque semaine</t>
+  </si>
+  <si>
+    <t>Jean-Thomas Lamonde</t>
   </si>
 </sst>
 </file>
@@ -828,7 +831,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -987,6 +990,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,42 +1022,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1040,24 +1031,19 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <b/>
         <family val="2"/>
-        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1065,7 +1051,12 @@
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <vertical/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1104,35 +1095,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1345,6 +1307,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1492,61 +1483,61 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Critères d'évaluation" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Éléments observables" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Échelles" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Points" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Points" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(C2,echelles!#REF!,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Commentaires" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Commentaires" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tbl_echelle2" displayName="tbl_echelle2" ref="A7:B9" totalsRowShown="0" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tbl_echelle2" displayName="tbl_echelle2" ref="A7:B9" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="A7:B9" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Description de l'échelle descriptive" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Note" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Description de l'échelle descriptive" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Note" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tbl_echelle1" displayName="tbl_echelle1" ref="A1:B5" totalsRowShown="0" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tbl_echelle1" displayName="tbl_echelle1" ref="A1:B5" totalsRowShown="0" tableBorderDxfId="12">
   <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Description de l'échelle descriptive" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Note" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Description de l'échelle descriptive" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Note" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EB0122B-182D-4B3F-AF35-9FF1BAE5F864}" name="tbl_echelle13" displayName="tbl_echelle13" ref="A11:B17" totalsRowShown="0" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EB0122B-182D-4B3F-AF35-9FF1BAE5F864}" name="tbl_echelle13" displayName="tbl_echelle13" ref="A11:B17" totalsRowShown="0" tableBorderDxfId="9">
   <autoFilter ref="A11:B17" xr:uid="{8EB0122B-182D-4B3F-AF35-9FF1BAE5F864}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{768440EF-BCA6-488B-A368-EE5F9EA54BD9}" name="Description de l'échelle descriptive" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{516767D4-27CC-4460-86BE-9264432807BD}" name="Note" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{768440EF-BCA6-488B-A368-EE5F9EA54BD9}" name="Description de l'échelle descriptive" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{516767D4-27CC-4460-86BE-9264432807BD}" name="Note" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0AD1B38C-ABFF-4C05-9F27-FCAEBFBDD923}" name="tbl_echelle139" displayName="tbl_echelle139" ref="A19:B25" totalsRowShown="0" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0AD1B38C-ABFF-4C05-9F27-FCAEBFBDD923}" name="tbl_echelle139" displayName="tbl_echelle139" ref="A19:B25" totalsRowShown="0" tableBorderDxfId="6">
   <autoFilter ref="A19:B25" xr:uid="{0AD1B38C-ABFF-4C05-9F27-FCAEBFBDD923}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{26169F7C-A8D3-4E90-9BCE-257698216AAA}" name="Description de l'échelle descriptive" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B9849F27-91E8-40F2-AD3D-7F2AB06F0A73}" name="Note" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{26169F7C-A8D3-4E90-9BCE-257698216AAA}" name="Description de l'échelle descriptive" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B9849F27-91E8-40F2-AD3D-7F2AB06F0A73}" name="Note" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tbl_etudiants" displayName="tbl_etudiants" ref="A1:A43" totalsRowShown="0" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tbl_etudiants" displayName="tbl_etudiants" ref="A1:A43" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="A1:A43" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Nom de l'étudiant"/>
@@ -1556,11 +1547,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tbl_definitions" displayName="tbl_definitions" ref="A1:B6" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tbl_definitions" displayName="tbl_definitions" ref="A1:B6" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Temes" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Définitions" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Temes" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Définitions" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1833,20 +1824,20 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="66.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.08203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
@@ -1863,168 +1854,168 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="34" t="e">
         <f>VLOOKUP(C2,echelles!$A$20:$B$25,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="34" t="e">
         <f>VLOOKUP(C3,echelles!$A$20:$B$25,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="34" t="e">
         <f>VLOOKUP(C4,echelles!$A$20:$B$25,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="34" t="e">
         <f>VLOOKUP(C5,echelles!$A$20:$B$25,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="34" t="e">
         <f>VLOOKUP(C6,echelles!$A$20:$B$25,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="34" t="e">
         <f>VLOOKUP(C7,echelles!$A$20:$B$25,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="34" t="e">
         <f>VLOOKUP(C8,echelles!$A$12:$B$17,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E8" s="49"/>
     </row>
-    <row r="9" spans="1:5" ht="16.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="34" t="e">
         <f>VLOOKUP(C9,echelles!$A$12:$B$17,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E9" s="49"/>
     </row>
-    <row r="10" spans="1:5" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
       <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="34" t="e">
         <f>VLOOKUP(C10,echelles!$A$12:$B$17,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E10" s="59"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="64" t="s">
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="34" t="e">
         <f>VLOOKUP(C11,echelles!$A$8:$B$9,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E11" s="65"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="66"/>
-      <c r="B12" s="59" t="s">
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="34" t="e">
         <f>VLOOKUP(C12,echelles!$A$2:$B$5,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E12" s="59"/>
-    </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="55"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="52" t="e">
         <f>VLOOKUP(C13,echelles!$A$12:$B$17,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E13" s="46"/>
     </row>
-    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="58" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="52">
@@ -2032,12 +2023,12 @@
       </c>
       <c r="E14" s="50"/>
     </row>
-    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>14</v>
@@ -2049,7 +2040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
@@ -2062,9 +2053,11 @@
       <c r="D16" s="36">
         <v>0.9</v>
       </c>
-      <c r="E16" s="54"/>
-    </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
@@ -2077,9 +2070,9 @@
       <c r="D17" s="37">
         <v>0.6</v>
       </c>
-      <c r="E17" s="55"/>
-    </row>
-    <row r="18" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="63"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>96</v>
       </c>
@@ -2093,9 +2086,9 @@
         <f>SUM(D2:D14)</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="55"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="63"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2108,9 +2101,9 @@
       <c r="D19" s="18">
         <v>0</v>
       </c>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="63"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -2123,15 +2116,15 @@
       <c r="D20" s="18">
         <v>0</v>
       </c>
-      <c r="E20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="12">
         <f ca="1">NOW()</f>
-        <v>45380.567368634256</v>
+        <v>45410.888822222223</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>11</v>
@@ -2139,9 +2132,9 @@
       <c r="D21" s="19">
         <v>0</v>
       </c>
-      <c r="E21" s="56"/>
-    </row>
-    <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="64"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -2161,40 +2154,40 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
     </row>
   </sheetData>
@@ -2240,7 +2233,7 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>etudiants!$A$2:$A$43</xm:f>
@@ -2251,19 +2244,13 @@
           <x14:formula1>
             <xm:f>echelles!$A$12:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C10</xm:sqref>
+          <xm:sqref>C8:C10 C13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B0224CB6-4769-41A9-82C9-3F26B24C2ED5}">
           <x14:formula1>
             <xm:f>echelles!$A$20:$A$25</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{765ABD95-C394-400B-B211-E43F1FCD9564}">
-          <x14:formula1>
-            <xm:f>echelles!$A$12:$A$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>C13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28EE9F06-04EA-4A44-8AE1-B18C038DE5E8}">
           <x14:formula1>
@@ -2291,14 +2278,14 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.08203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="50.125" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2306,7 +2293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>45</v>
       </c>
@@ -2314,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2322,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2330,7 +2317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2338,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2346,7 +2333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2354,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2362,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2370,7 +2357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>43</v>
       </c>
@@ -2378,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2386,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2394,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2402,7 +2389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2410,7 +2397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2418,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2426,7 +2413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>43</v>
       </c>
@@ -2434,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2442,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2450,7 +2437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2458,7 +2445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -2466,7 +2453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2493,223 +2480,223 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="57" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="57" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="57" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="57" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="57" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="57" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="57" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="57" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="57" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="57" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="57" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="57" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="57" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="57" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="57" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="57" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="57" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="57" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="57" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="57" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="57" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="57" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="57" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="57" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="57" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="57" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2731,14 +2718,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="140.6640625" style="30" customWidth="1"/>
-    <col min="3" max="16384" width="11.1640625" style="30"/>
+    <col min="1" max="1" width="30.125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="140.625" style="30" customWidth="1"/>
+    <col min="3" max="16384" width="11.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
@@ -2746,7 +2733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
@@ -2754,7 +2741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>22</v>
       </c>
@@ -2762,7 +2749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
@@ -2770,7 +2757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>32</v>
       </c>
@@ -2778,7 +2765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>28</v>
       </c>
